--- a/Zoom Recording Links C-DAC.xlsx
+++ b/Zoom Recording Links C-DAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C-DAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD7AC4F-77AD-4C67-BB6D-E52E4C596255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163C155-8223-40E0-BC68-760DAD3D6980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="8844" windowHeight="12336" xr2:uid="{89E1B4A4-67B6-44A3-A77B-F9337037539B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{89E1B4A4-67B6-44A3-A77B-F9337037539B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -57,12 +57,6 @@
     <t>https://us02web.zoom.us/rec/share/VXtr-hJ89X7xVU6mtKQBnMM1X7uQQrYisGo5wjgVKvCxCFZ1mbuIqi3yaYMkBhg9.T_hRluXAj0cuezkw</t>
   </si>
   <si>
-    <t>1. Logic Building 20-08-2024 to 24-08-2024</t>
-  </si>
-  <si>
-    <t>2. Concepts of Operating System(COS) 27-08-2024 to 31-08-2024</t>
-  </si>
-  <si>
     <t>https://us02web.zoom.us/rec/share/SrzUVqR_qvjxgYgBrPn78ghUwNnu7_rfZrbzUvYXujTXZ6Y19jOigkNDvW4fkExf.8Yh2qpIc0LMbv7bv</t>
   </si>
   <si>
@@ -85,6 +79,45 @@
   </si>
   <si>
     <t>https://us02web.zoom.us/rec/share/-6NnD6Ev--eCDYXBWxw5khHjC6dhlH_qcvwnSDVr52JWl4D_sAM8vqNqgzB4Ga6Z.fvr3SvvMYZ-IqPvs</t>
+  </si>
+  <si>
+    <t>2. Object Oriented Programming in Java (OOPJ) 03-09-2024 to 23-09-2024</t>
+  </si>
+  <si>
+    <t>0. Logic Building 20-08-2024 to 24-08-2024</t>
+  </si>
+  <si>
+    <t>1. Concepts of Operating System (COS) 27-08-2024 to 31-08-2024</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/Mk0C7rkEvuOAvY-LgYzKHpWu4GaKGJ7gsXbwL12zcKgSlEvdmpFbUdF_N4bHdPpZ.4gopIraI6GVIw5lb</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/ctP6sK27-beN-PyhLJ0WAHYVxA1m6Vk56T8ZOsd9keahEVn2tWotCIbF3QcEicGn.kbL89e_IiryJWGhS</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/mVQh8dmsxb_wft3eEV5E-lBBRaUjePMF9_f0eRNBLsMdmtVDPpWh_EgJFS3yy-ue.iQkeT6gOm5AHJ6Ys</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/X7DOTt2ZsZes5PG1CbC3DaXYN0mz4TAgDit7f1_8QyhQLr7WN8HCoNWSY4yUpeo9.StuLQnn24ecEHXbk</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/TtKW5GWS0rh4koBuqPCY0iayC6AA09GIp-qQVZkajmRBpHy6j992LvNtdq9yBJY.ZWUzcEg2_gi18d6k</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/WZc-KhRq40Y8oiUtP1k9N4dvU9Xn3UIwcF5FdxTAqUTp9uODQVfOxTGN-jidrOuJ.2XZYsiXkul8BdYsl</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/gSpB5tnOLbY5S44asrpf1yGVX1V8HuRa-IsKEyZfiTE1yukiJtW_efwm3MIY743K.o4haitAfndFseQzq</t>
+  </si>
+  <si>
+    <t>10. General Aptitude</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/2Y6CTdRPK0yfPtZ7v3QYVBKEwwwxqiDLofD5BnWNujpMcITWWXxWmt-IbvUZxcQX.PL1Gbn64cZ1VeQ86</t>
+  </si>
+  <si>
+    <t>https://us02web.zoom.us/rec/share/A5tgQkWcx2pgU_l_r69DpKtAmAcKyUPg3Rr74DVFsTvKzzHqQ1pR6rFQzG_DVbly.zXM9xSVNsTr5tDio</t>
   </si>
 </sst>
 </file>
@@ -473,16 +506,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CB79AD-7A42-457B-A4E6-0E980539B2A5}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="115.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -495,7 +528,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -540,7 +573,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6"/>
     </row>
@@ -549,12 +582,12 @@
         <v>45531</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -562,12 +595,12 @@
         <v>45532</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -575,7 +608,7 @@
         <v>45533</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,7 +616,7 @@
         <v>45534</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -591,17 +624,102 @@
         <v>45535</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>45538</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>45539</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>45540</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>45541</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>45542</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>45543</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>45543</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{2582E01F-96F5-4F6B-9D14-D7989C64A509}"/>
@@ -617,8 +735,15 @@
     <hyperlink ref="B16" r:id="rId11" xr:uid="{CB30B748-022B-4C8F-B8C9-AE93EB97949D}"/>
     <hyperlink ref="B17" r:id="rId12" xr:uid="{07B851CA-C2CE-4D84-BFA1-50834EBD93A8}"/>
     <hyperlink ref="B18" r:id="rId13" xr:uid="{0BFE76EC-6319-4444-8946-2CE21A72C409}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{7C087E19-D75A-4430-AEA1-99DE97844A84}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{7A44E7A1-3C32-49D4-82AA-0E375EA3A02E}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{85003ED9-8452-484C-9D94-ECE9133991A2}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{5EFA41BD-F041-4BED-858D-362C1062ABEE}"/>
+    <hyperlink ref="B25" r:id="rId18" xr:uid="{044412FA-9963-4D0B-89FF-1E23CBA2C9D2}"/>
+    <hyperlink ref="B26" r:id="rId19" xr:uid="{2CE19AE6-1068-4BA5-9F72-286353BF43B7}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{A7CCCAC8-7DA9-4AB7-8104-196F1A25A085}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>